--- a/data/data_template_default.xlsx
+++ b/data/data_template_default.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hmori\Desktop\GSI Work Files\5648_SERDP_Borden\5648_TA2_Transition_Assessment_Assistant_working\5648_TA2-Transition-Assessment-Assistant_1a\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B38604EA-1857-4F04-90BE-E49D04FBFE36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{490F2C21-FC14-4A3D-8B5E-5A967288D4C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{FFC3D5E4-80F1-4B17-B001-9ABFF7A9C093}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{FFC3D5E4-80F1-4B17-B001-9ABFF7A9C093}"/>
   </bookViews>
   <sheets>
     <sheet name="Read_Me" sheetId="3" r:id="rId1"/>
@@ -161,9 +161,6 @@
     <t>Plume</t>
   </si>
   <si>
-    <t>Downgradient</t>
-  </si>
-  <si>
     <t>Distance from Source (m)</t>
   </si>
   <si>
@@ -177,6 +174,9 @@
   </si>
   <si>
     <t>Date</t>
+  </si>
+  <si>
+    <t>Plume Boundary</t>
   </si>
 </sst>
 </file>
@@ -335,7 +335,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -356,7 +356,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
@@ -366,7 +365,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -710,7 +709,7 @@
       <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -720,60 +719,60 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33414A02-D091-4467-B157-75168EA9B632}">
   <dimension ref="A1:AG68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="12" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A1" s="4"/>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
       <c r="D1" s="6"/>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
-      <c r="M1" s="18"/>
-      <c r="N1" s="18"/>
-      <c r="O1" s="18"/>
-      <c r="P1" s="18"/>
-      <c r="Q1" s="18"/>
-      <c r="R1" s="18"/>
-      <c r="S1" s="18"/>
-      <c r="T1" s="18"/>
-      <c r="U1" s="18"/>
-      <c r="V1" s="18"/>
-      <c r="W1" s="18"/>
-      <c r="X1" s="18"/>
-      <c r="Y1" s="18"/>
-      <c r="Z1" s="18"/>
-      <c r="AA1" s="18"/>
-      <c r="AB1" s="18"/>
-      <c r="AC1" s="18"/>
-      <c r="AD1" s="18"/>
-      <c r="AE1" s="18"/>
-      <c r="AF1" s="18"/>
-      <c r="AG1" s="18"/>
-    </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="17"/>
+      <c r="O1" s="17"/>
+      <c r="P1" s="17"/>
+      <c r="Q1" s="17"/>
+      <c r="R1" s="17"/>
+      <c r="S1" s="17"/>
+      <c r="T1" s="17"/>
+      <c r="U1" s="17"/>
+      <c r="V1" s="17"/>
+      <c r="W1" s="17"/>
+      <c r="X1" s="17"/>
+      <c r="Y1" s="17"/>
+      <c r="Z1" s="17"/>
+      <c r="AA1" s="17"/>
+      <c r="AB1" s="17"/>
+      <c r="AC1" s="17"/>
+      <c r="AD1" s="17"/>
+      <c r="AE1" s="17"/>
+      <c r="AF1" s="17"/>
+      <c r="AG1" s="17"/>
+    </row>
+    <row r="2" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>9</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>10</v>
@@ -782,10 +781,10 @@
         <v>11</v>
       </c>
       <c r="E2" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="F2" s="8" t="s">
         <v>43</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>44</v>
       </c>
       <c r="G2" s="8" t="s">
         <v>3</v>
@@ -869,11 +868,11 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" s="16">
+      <c r="B3" s="15">
         <v>34206</v>
       </c>
       <c r="C3" s="8" t="s">
@@ -921,11 +920,11 @@
       <c r="AF3" s="9"/>
       <c r="AG3" s="9"/>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
-      <c r="B4" s="16">
+      <c r="B4" s="15">
         <v>34210</v>
       </c>
       <c r="C4" s="8" t="s">
@@ -973,11 +972,11 @@
       <c r="AF4" s="9"/>
       <c r="AG4" s="9"/>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
-      <c r="B5" s="16">
+      <c r="B5" s="15">
         <v>34740</v>
       </c>
       <c r="C5" s="8" t="s">
@@ -1028,11 +1027,11 @@
       <c r="AF5" s="9"/>
       <c r="AG5" s="9"/>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
-      <c r="B6" s="16">
+      <c r="B6" s="15">
         <v>34961</v>
       </c>
       <c r="C6" s="8" t="s">
@@ -1083,11 +1082,11 @@
       <c r="AF6" s="9"/>
       <c r="AG6" s="9"/>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
-      <c r="B7" s="16">
+      <c r="B7" s="15">
         <v>35037</v>
       </c>
       <c r="C7" s="8" t="s">
@@ -1136,11 +1135,11 @@
       <c r="AF7" s="9"/>
       <c r="AG7" s="9"/>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
-      <c r="B8" s="16">
+      <c r="B8" s="15">
         <v>35149</v>
       </c>
       <c r="C8" s="8" t="s">
@@ -1191,11 +1190,11 @@
       <c r="AF8" s="9"/>
       <c r="AG8" s="9"/>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
-      <c r="B9" s="16">
+      <c r="B9" s="15">
         <v>35370</v>
       </c>
       <c r="C9" s="8" t="s">
@@ -1242,11 +1241,11 @@
       <c r="AF9" s="9"/>
       <c r="AG9" s="9"/>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>8</v>
       </c>
-      <c r="B10" s="16">
+      <c r="B10" s="15">
         <v>35458</v>
       </c>
       <c r="C10" s="8" t="s">
@@ -1301,11 +1300,11 @@
       <c r="AF10" s="9"/>
       <c r="AG10" s="9"/>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>9</v>
       </c>
-      <c r="B11" s="16">
+      <c r="B11" s="15">
         <v>35551</v>
       </c>
       <c r="C11" s="8" t="s">
@@ -1358,11 +1357,11 @@
       <c r="AF11" s="9"/>
       <c r="AG11" s="9"/>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>10</v>
       </c>
-      <c r="B12" s="16">
+      <c r="B12" s="15">
         <v>35632</v>
       </c>
       <c r="C12" s="8" t="s">
@@ -1411,11 +1410,11 @@
       <c r="AF12" s="9"/>
       <c r="AG12" s="9"/>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>11</v>
       </c>
-      <c r="B13" s="16">
+      <c r="B13" s="15">
         <v>35717</v>
       </c>
       <c r="C13" s="8" t="s">
@@ -1465,11 +1464,11 @@
       <c r="AF13" s="9"/>
       <c r="AG13" s="9"/>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>12</v>
       </c>
-      <c r="B14" s="16">
+      <c r="B14" s="15">
         <v>35731</v>
       </c>
       <c r="C14" s="8" t="s">
@@ -1517,11 +1516,11 @@
       <c r="AF14" s="9"/>
       <c r="AG14" s="9"/>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>13</v>
       </c>
-      <c r="B15" s="16">
+      <c r="B15" s="15">
         <v>35815</v>
       </c>
       <c r="C15" s="8" t="s">
@@ -1574,11 +1573,11 @@
       <c r="AF15" s="9"/>
       <c r="AG15" s="9"/>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>14</v>
       </c>
-      <c r="B16" s="16">
+      <c r="B16" s="15">
         <v>35901</v>
       </c>
       <c r="C16" s="8" t="s">
@@ -1631,11 +1630,11 @@
       <c r="AF16" s="9"/>
       <c r="AG16" s="9"/>
     </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>15</v>
       </c>
-      <c r="B17" s="16">
+      <c r="B17" s="15">
         <v>36005</v>
       </c>
       <c r="C17" s="8" t="s">
@@ -1686,11 +1685,11 @@
       <c r="AF17" s="9"/>
       <c r="AG17" s="9"/>
     </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>16</v>
       </c>
-      <c r="B18" s="16">
+      <c r="B18" s="15">
         <v>36095</v>
       </c>
       <c r="C18" s="8" t="s">
@@ -1741,11 +1740,11 @@
       <c r="AF18" s="9"/>
       <c r="AG18" s="9"/>
     </row>
-    <row r="19" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>17</v>
       </c>
-      <c r="B19" s="16">
+      <c r="B19" s="15">
         <v>36187</v>
       </c>
       <c r="C19" s="8" t="s">
@@ -1792,11 +1791,11 @@
       <c r="AF19" s="9"/>
       <c r="AG19" s="9"/>
     </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>18</v>
       </c>
-      <c r="B20" s="16">
+      <c r="B20" s="15">
         <v>36269</v>
       </c>
       <c r="C20" s="8" t="s">
@@ -1847,11 +1846,11 @@
       <c r="AF20" s="9"/>
       <c r="AG20" s="9"/>
     </row>
-    <row r="21" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>19</v>
       </c>
-      <c r="B21" s="16">
+      <c r="B21" s="15">
         <v>36368</v>
       </c>
       <c r="C21" s="8" t="s">
@@ -1906,11 +1905,11 @@
       <c r="AF21" s="9"/>
       <c r="AG21" s="9"/>
     </row>
-    <row r="22" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>20</v>
       </c>
-      <c r="B22" s="16">
+      <c r="B22" s="15">
         <v>36493</v>
       </c>
       <c r="C22" s="8" t="s">
@@ -1953,11 +1952,11 @@
       <c r="AF22" s="9"/>
       <c r="AG22" s="9"/>
     </row>
-    <row r="23" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>21</v>
       </c>
-      <c r="B23" s="16">
+      <c r="B23" s="15">
         <v>36549</v>
       </c>
       <c r="C23" s="8" t="s">
@@ -1973,11 +1972,11 @@
         <v>280</v>
       </c>
     </row>
-    <row r="24" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>22</v>
       </c>
-      <c r="B24" s="16">
+      <c r="B24" s="15">
         <v>36642</v>
       </c>
       <c r="C24" s="8" t="s">
@@ -1993,11 +1992,11 @@
         <v>240</v>
       </c>
     </row>
-    <row r="25" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>23</v>
       </c>
-      <c r="B25" s="16">
+      <c r="B25" s="15">
         <v>36733</v>
       </c>
       <c r="C25" s="8" t="s">
@@ -2013,11 +2012,11 @@
         <v>280</v>
       </c>
     </row>
-    <row r="26" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>24</v>
       </c>
-      <c r="B26" s="16">
+      <c r="B26" s="15">
         <v>36823</v>
       </c>
       <c r="C26" s="8" t="s">
@@ -2033,11 +2032,11 @@
         <v>200</v>
       </c>
     </row>
-    <row r="27" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>25</v>
       </c>
-      <c r="B27" s="16">
+      <c r="B27" s="15">
         <v>36900</v>
       </c>
       <c r="C27" s="8" t="s">
@@ -2053,11 +2052,11 @@
         <v>210</v>
       </c>
     </row>
-    <row r="28" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>26</v>
       </c>
-      <c r="B28" s="16">
+      <c r="B28" s="15">
         <v>36991</v>
       </c>
       <c r="C28" s="8" t="s">
@@ -2073,11 +2072,11 @@
         <v>200</v>
       </c>
     </row>
-    <row r="29" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>27</v>
       </c>
-      <c r="B29" s="16">
+      <c r="B29" s="15">
         <v>37082</v>
       </c>
       <c r="C29" s="8" t="s">
@@ -2093,11 +2092,11 @@
         <v>180</v>
       </c>
     </row>
-    <row r="30" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>28</v>
       </c>
-      <c r="B30" s="16">
+      <c r="B30" s="15">
         <v>37204</v>
       </c>
       <c r="C30" s="8" t="s">
@@ -2113,11 +2112,11 @@
         <v>180</v>
       </c>
     </row>
-    <row r="31" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>29</v>
       </c>
-      <c r="B31" s="16">
+      <c r="B31" s="15">
         <v>37272</v>
       </c>
       <c r="C31" s="8" t="s">
@@ -2133,11 +2132,11 @@
         <v>170</v>
       </c>
     </row>
-    <row r="32" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>30</v>
       </c>
-      <c r="B32" s="16">
+      <c r="B32" s="15">
         <v>37365</v>
       </c>
       <c r="C32" s="8" t="s">
@@ -2153,11 +2152,11 @@
         <v>160</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>31</v>
       </c>
-      <c r="B33" s="16">
+      <c r="B33" s="15">
         <v>37447</v>
       </c>
       <c r="C33" s="8" t="s">
@@ -2173,11 +2172,11 @@
         <v>170</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>32</v>
       </c>
-      <c r="B34" s="16">
+      <c r="B34" s="15">
         <v>37582</v>
       </c>
       <c r="C34" s="8" t="s">
@@ -2193,11 +2192,11 @@
         <v>150</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>33</v>
       </c>
-      <c r="B35" s="16">
+      <c r="B35" s="15">
         <v>37638</v>
       </c>
       <c r="C35" s="8" t="s">
@@ -2213,11 +2212,11 @@
         <v>170</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>34</v>
       </c>
-      <c r="B36" s="16">
+      <c r="B36" s="15">
         <v>37735</v>
       </c>
       <c r="C36" s="8" t="s">
@@ -2233,11 +2232,11 @@
         <v>150</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>35</v>
       </c>
-      <c r="B37" s="16">
+      <c r="B37" s="15">
         <v>37798</v>
       </c>
       <c r="C37" s="8" t="s">
@@ -2253,11 +2252,11 @@
         <v>130</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>36</v>
       </c>
-      <c r="B38" s="16">
+      <c r="B38" s="15">
         <v>37938</v>
       </c>
       <c r="C38" s="8" t="s">
@@ -2273,11 +2272,11 @@
         <v>140</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>37</v>
       </c>
-      <c r="B39" s="16">
+      <c r="B39" s="15">
         <v>38009</v>
       </c>
       <c r="C39" s="8" t="s">
@@ -2293,11 +2292,11 @@
         <v>160</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>38</v>
       </c>
-      <c r="B40" s="16">
+      <c r="B40" s="15">
         <v>38086</v>
       </c>
       <c r="C40" s="8" t="s">
@@ -2313,11 +2312,11 @@
         <v>170</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>39</v>
       </c>
-      <c r="B41" s="16">
+      <c r="B41" s="15">
         <v>38188</v>
       </c>
       <c r="C41" s="8" t="s">
@@ -2333,11 +2332,11 @@
         <v>140</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>40</v>
       </c>
-      <c r="B42" s="16">
+      <c r="B42" s="15">
         <v>38300</v>
       </c>
       <c r="C42" s="8" t="s">
@@ -2353,11 +2352,11 @@
         <v>120</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>41</v>
       </c>
-      <c r="B43" s="16">
+      <c r="B43" s="15">
         <v>38378</v>
       </c>
       <c r="C43" s="8" t="s">
@@ -2373,11 +2372,11 @@
         <v>130</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>42</v>
       </c>
-      <c r="B44" s="16">
+      <c r="B44" s="15">
         <v>38471</v>
       </c>
       <c r="C44" s="8" t="s">
@@ -2393,11 +2392,11 @@
         <v>120</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>43</v>
       </c>
-      <c r="B45" s="16">
+      <c r="B45" s="15">
         <v>38565</v>
       </c>
       <c r="C45" s="8" t="s">
@@ -2413,11 +2412,11 @@
         <v>120</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>44</v>
       </c>
-      <c r="B46" s="16">
+      <c r="B46" s="15">
         <v>38653</v>
       </c>
       <c r="C46" s="8" t="s">
@@ -2433,11 +2432,11 @@
         <v>110</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>45</v>
       </c>
-      <c r="B47" s="16">
+      <c r="B47" s="15">
         <v>38755</v>
       </c>
       <c r="C47" s="8" t="s">
@@ -2453,11 +2452,11 @@
         <v>100</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>46</v>
       </c>
-      <c r="B48" s="16">
+      <c r="B48" s="15">
         <v>38848</v>
       </c>
       <c r="C48" s="8" t="s">
@@ -2473,11 +2472,11 @@
         <v>87</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>47</v>
       </c>
-      <c r="B49" s="16">
+      <c r="B49" s="15">
         <v>38946</v>
       </c>
       <c r="C49" s="8" t="s">
@@ -2493,11 +2492,11 @@
         <v>150</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>48</v>
       </c>
-      <c r="B50" s="16">
+      <c r="B50" s="15">
         <v>39027</v>
       </c>
       <c r="C50" s="8" t="s">
@@ -2513,11 +2512,11 @@
         <v>160</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>49</v>
       </c>
-      <c r="B51" s="16">
+      <c r="B51" s="15">
         <v>39140</v>
       </c>
       <c r="C51" s="8" t="s">
@@ -2533,11 +2532,11 @@
         <v>99</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>50</v>
       </c>
-      <c r="B52" s="16">
+      <c r="B52" s="15">
         <v>39216</v>
       </c>
       <c r="C52" s="8" t="s">
@@ -2550,11 +2549,11 @@
         <v>120</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>51</v>
       </c>
-      <c r="B53" s="16">
+      <c r="B53" s="15">
         <v>39218</v>
       </c>
       <c r="C53" s="8" t="s">
@@ -2567,11 +2566,11 @@
         <v>100</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>52</v>
       </c>
-      <c r="B54" s="16">
+      <c r="B54" s="15">
         <v>39311</v>
       </c>
       <c r="C54" s="8" t="s">
@@ -2587,11 +2586,11 @@
         <v>100</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>53</v>
       </c>
-      <c r="B55" s="16">
+      <c r="B55" s="15">
         <v>39500</v>
       </c>
       <c r="C55" s="8" t="s">
@@ -2607,11 +2606,11 @@
         <v>110</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>54</v>
       </c>
-      <c r="B56" s="16">
+      <c r="B56" s="15">
         <v>39689</v>
       </c>
       <c r="C56" s="8" t="s">
@@ -2627,11 +2626,11 @@
         <v>110</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>55</v>
       </c>
-      <c r="B57" s="16">
+      <c r="B57" s="15">
         <v>39930</v>
       </c>
       <c r="C57" s="8" t="s">
@@ -2647,11 +2646,11 @@
         <v>93</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>56</v>
       </c>
-      <c r="B58" s="16">
+      <c r="B58" s="15">
         <v>40045</v>
       </c>
       <c r="C58" s="8" t="s">
@@ -2667,11 +2666,11 @@
         <v>100</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>57</v>
       </c>
-      <c r="B59" s="16">
+      <c r="B59" s="15">
         <v>40396</v>
       </c>
       <c r="C59" s="8" t="s">
@@ -2687,11 +2686,11 @@
         <v>68</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>58</v>
       </c>
-      <c r="B60" s="16">
+      <c r="B60" s="15">
         <v>40585</v>
       </c>
       <c r="C60" s="8" t="s">
@@ -2707,11 +2706,11 @@
         <v>70</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>59</v>
       </c>
-      <c r="B61" s="16">
+      <c r="B61" s="15">
         <v>40757</v>
       </c>
       <c r="C61" s="8" t="s">
@@ -2727,11 +2726,11 @@
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>60</v>
       </c>
-      <c r="B62" s="16">
+      <c r="B62" s="15">
         <v>40940</v>
       </c>
       <c r="C62" s="8" t="s">
@@ -2747,11 +2746,11 @@
         <v>64</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>61</v>
       </c>
-      <c r="B63" s="16">
+      <c r="B63" s="15">
         <v>41127</v>
       </c>
       <c r="C63" s="8" t="s">
@@ -2767,11 +2766,11 @@
         <v>61</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>62</v>
       </c>
-      <c r="B64" s="16">
+      <c r="B64" s="15">
         <v>41309</v>
       </c>
       <c r="C64" s="8" t="s">
@@ -2787,11 +2786,11 @@
         <v>55</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>63</v>
       </c>
-      <c r="B65" s="16">
+      <c r="B65" s="15">
         <v>41491</v>
       </c>
       <c r="C65" s="8" t="s">
@@ -2807,11 +2806,11 @@
         <v>57</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>64</v>
       </c>
-      <c r="B66" s="16">
+      <c r="B66" s="15">
         <v>41683</v>
       </c>
       <c r="C66" s="8" t="s">
@@ -2827,11 +2826,11 @@
         <v>57</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>65</v>
       </c>
-      <c r="B67" s="16">
+      <c r="B67" s="15">
         <v>41893</v>
       </c>
       <c r="C67" s="8" t="s">
@@ -2847,11 +2846,11 @@
         <v>57</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>66</v>
       </c>
-      <c r="B68" s="16">
+      <c r="B68" s="15">
         <v>42058</v>
       </c>
       <c r="C68" s="8" t="s">
@@ -2884,20 +2883,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{186B9F43-56CE-4B47-B5C5-CA3BDB0A7AFE}">
   <dimension ref="A1:K18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>14</v>
       </c>
@@ -2907,48 +2906,48 @@
       <c r="C1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="E1" s="10" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E1" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="11">
+      <c r="B2" s="10">
         <v>29.731660000000002</v>
       </c>
-      <c r="C2" s="11">
+      <c r="C2" s="10">
         <v>-95.412599999999998</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E2" s="10">
+      <c r="E2" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="8">
         <v>29.732970000000002</v>
       </c>
-      <c r="C3" s="14">
+      <c r="C3" s="13">
         <v>-95.413979999999995</v>
       </c>
-      <c r="D3" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="E3" s="10">
+      <c r="D3" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
@@ -2958,14 +2957,14 @@
       <c r="C4" s="8">
         <v>-95.413020000000003</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E4" s="10">
+      <c r="E4" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
@@ -2975,14 +2974,14 @@
       <c r="C5" s="8">
         <v>-95.411810000000003</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E5" s="10">
+      <c r="E5" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
@@ -2992,16 +2991,16 @@
       <c r="C6" s="8">
         <v>-95.412239999999997</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E6" s="10">
+      <c r="E6" s="3">
         <v>500</v>
       </c>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>5</v>
       </c>
@@ -3011,14 +3010,14 @@
       <c r="C7" s="8">
         <v>-95.411389999999997</v>
       </c>
-      <c r="D7" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="E7" s="10">
+      <c r="D7" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E7" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>6</v>
       </c>
@@ -3028,14 +3027,14 @@
       <c r="C8" s="8">
         <v>-95.410929999999993</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E8" s="10">
+      <c r="E8" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>7</v>
       </c>
@@ -3045,14 +3044,14 @@
       <c r="C9" s="8">
         <v>-95.413179999999997</v>
       </c>
-      <c r="D9" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="E9" s="10">
+      <c r="D9" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E9" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>8</v>
       </c>
@@ -3062,16 +3061,16 @@
       <c r="C10" s="8">
         <v>-95.412350000000004</v>
       </c>
-      <c r="D10" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="E10" s="10">
+      <c r="D10" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E10" s="3">
         <v>250</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="15" t="s">
-        <v>43</v>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="14" t="s">
+        <v>42</v>
       </c>
       <c r="B11" s="8">
         <v>29.733560000000001</v>
@@ -3080,15 +3079,15 @@
         <v>-95.413349999999994</v>
       </c>
       <c r="D11" t="s">
-        <v>45</v>
-      </c>
-      <c r="E11" s="15">
+        <v>44</v>
+      </c>
+      <c r="E11" s="14">
         <v>230</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="15" t="s">
-        <v>44</v>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="14" t="s">
+        <v>43</v>
       </c>
       <c r="B12" s="8">
         <v>29.73556</v>
@@ -3097,14 +3096,14 @@
         <v>-95.415350000000004</v>
       </c>
       <c r="D12" t="s">
-        <v>45</v>
-      </c>
-      <c r="E12" s="15">
+        <v>44</v>
+      </c>
+      <c r="E12" s="14">
         <v>210</v>
       </c>
     </row>
-    <row r="18" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K18" s="13"/>
+    <row r="18" spans="11:11" x14ac:dyDescent="0.3">
+      <c r="K18" s="12"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
